--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793D80E8-BB9E-4438-B3DF-6C17B2E8A43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F806F2-BC4B-48B9-9B5A-CEFEFB4271DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Αύξων αριθμός άσκησης</t>
   </si>
@@ -294,16 +294,647 @@
   <si>
     <t>Εύρεση ψηφίων τμήματος υποδικτύου 5</t>
   </si>
+  <si>
+    <t>M bit - X bit</t>
+  </si>
+  <si>
+    <t>Μεταγράψτε τη διεύθυνση a1-d0-63-56-78-90 έτσι ώστε να είναι ενεργοποιημένο (1) το X-bit (U/L).</t>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt; a1-d0-63-56-78-90
+Το MSB είναι το a1 -&gt; άρα το 1010 0001 
+Αντιστρέφουμε το MSB  -&gt; 1000 0101 
+X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1100 0101
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0011
+Η νέα διεύθυνση είναι -&gt; a3-d0-63-56-78-90</t>
+  </si>
+  <si>
+    <t>Μεταγραφή διεύθυνσης MAC 1</t>
+  </si>
+  <si>
+    <t>Μεταγραφή διεύθυνσης MAC 2</t>
+  </si>
+  <si>
+    <t>Μεταγράψτε τη διεύθυνση a6-d0-63-56-78-90 έτσι ώστε η διεύθυνση να είναι πολυδιανομής.</t>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt; a6-d0-63-56-78-90
+Το MSB είναι το a6 -&gt; άρα το 1010 0110 
+Αντιστρέφουμε το MSB -&gt; 0110 0101 
+M-bit = 0  -&gt; μετατρέπουμε το M-bit σε 1 και έχουμε -&gt; 1110 0101
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111
+Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt; e5-d0-63-56-78-90
+Το MSB είναι το e5 -&gt; άρα το 1110 0101 
+Αντιστρέφουμε το MSB  -&gt; 1010 0111 
+X-bit = 0  -&gt; μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0111
+Αντιστρέφουμε ξανά το MSB -&gt; 11100111
+Η νέα διεύθυνση είναι -&gt; e7-d0-63-56-78-90
+</t>
+  </si>
+  <si>
+    <t>Μεταγραφή διεύθυνσης MAC 3</t>
+  </si>
+  <si>
+    <t>Μεταγραφή διεύθυνσης MAC 4</t>
+  </si>
+  <si>
+    <t>Μεταγράψτε τη διεύθυνση e5-d0-63-56-78-90 έτσι ώστε η διεύθυνση να είναι τοπικά διαχειριζόμενη</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δίνεται η διεύθυνση a5-d0-63-56-78-90. 
+Α) Βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L). 
+Β) Αναφέρετε τη σημασία των συγκεκριμένων τιμών M-bit (I/G) και X-bit (U/L).
+Γ) Μεταγράψτε τη διεύθυνση έτσι ώστε να είναι ενεργοποιημένο (1) το X-bit (U/L).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt; a5-d0-63-56-78-90
+Το MSB είναι το a1 -&gt; άρα το 1010 0101 
+Αντιστρέφουμε το MSB  -&gt; 1010 0101 
+M-bit = 1 Άρα είναι διεύθυνση Πολυδιανομής
+X-bit = 0 Άρα είναι διεύθυνση Καθολικά Μοναδική
+X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0101
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111
+Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90
+</t>
+  </si>
+  <si>
+    <t>Εύρεση Mbit, Xbit, OUI</t>
+  </si>
+  <si>
+    <r>
+      <t>Για τη διεύθυνση MAC e5-c8-d0-12-34-56 βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L) και το OUI.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt;  e5-c8-d0-12-34-56
+Το MSB είναι το e5 -&gt; άρα το 1110 0101 -&gt; αντιστρέφουμε -&gt; 1010 0111 
+M-bit = 1  X-bit = 0 
+OUI -&gt; e5-c8-d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διευθυνσιοδότηση </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Οι υπολογιστές με διευθύνσεις IP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.31.12/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>και 192.168.47.13/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (η μάσκα δικτύου /22 είναι 255.255.252.0) ανήκουν στο ίδιο δίκτυο;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Βρίσκουμε τις διευθύνσεις δικτύου των δύο υπολογιστών. Αν είναι ίδιες τότε οι υπολογιστές ανήκουν στο ίδιο δίκτυο. Αν δεν είναι ίδιες τότε οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα.
+1ος Η/Υ: 
+IP    192.168.31.12/22
+Μάσκα   255.255.252.0 
+Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.28.0/22  
+2ος Η/Υ: 
+IP  192.168.47.13/22
+Μάσκα   255.255.252.0
+Διεύθυνση Δικτύου IP AND Μάσκα =  192.168.44.0/22
+192.168.28.0 != 192.168.44.0 συνεπώς οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Για τη διεύθυνση IP 192.168.1.135/26 να δώσετε: 
+A. Την μάσκα δικτύου (δυαδική-δεκαδική)
+B. Τη διεύθυνση δικτύου (network address) 
+C. Τη διεύθυνση εκπομπής (broadcast address)
+D. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+E. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
+</t>
+  </si>
+  <si>
+    <t>A. Την μάσκα δικτύου(δυαδική-δεκαδική)
+255.255.255.192 ή 11111111.11111111.11111111.11000000
+B. Τη διεύθυνση δικτύου (network address) 
+Διεύθυνση Δικτύου 
+192.168.1.135(10000111)AND255.255.255.192(11000000)=192.168.1.128(10000000)/26
+C. Τη διεύθυνση εκπομπής (broadcast address)
+Διεύθυνση Εκπομπής   192.168.1.191(10111111)
+D. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+2^6 -2 = 62
+E. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
+Από 192.168.1.129 έως 192.168.1.190</t>
+  </si>
+  <si>
+    <t>Η.Υ σε ίδιο ή διαφορετικό δίκτυο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Εύρεση πληροφοριών δικτύου </t>
+  </si>
+  <si>
+    <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.46.128/26 σε έναν Η/Υ (host); Αιτιολογήστε</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Βοήθεια:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
+Διεύθυνση IP   192.168.46.128
+Μάσκα   255.255.255.192
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.46.128
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Η διεύθυνση 192.168.46.128 αποτελεί και τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2ος τρόπος:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
+192.168.46.128 (10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Άρα πρόκειται για τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Είδος διεύθυνσης IP 2</t>
+  </si>
+  <si>
+    <t>Είδος διεύθυνσης IP 1</t>
+  </si>
+  <si>
+    <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.31.63/26 σε έναν Η/Υ (host); Αιτιολογήστε.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Βοήθεια:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
+Διεύθυνση IP   192.168.31.63/26
+Μάσκα   255.255.255.192
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.31.0 (00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+Διεύθυνση Εκπομπής = 192.168.31.63 (00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Η διεύθυνση 192.168.31.63 αποτελεί και τη διεύθυνση εκπομπής του δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2ος τρόπος:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
+192.168.31.63 (00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Άρα πρόκειται για τη διεύθυνση εκπομπής, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
+    </r>
+  </si>
+  <si>
+    <t>Είδος διεύθυνσης IP 3</t>
+  </si>
+  <si>
+    <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.31.68/26 σε έναν Η/Υ (host); Αιτιολογήστε.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Βοήθεια:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
+Διεύθυνση IP   192.168.31.68/26
+Μάσκα   255.255.255.192
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.31.64 (01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+Διεύθυνση Εκπομπής = 192.168.31.127 (01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Η διεύθυνση 192.168.31.68 δεν είναι ούτε διεύθυνση δικτύου ούτε  διεύθυνση εκπομπής του δικτύου, άρα μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2ος τρόπος:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
+192.168.31.68 (01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Άρα πρόκειται για διεύθυνση που μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,6 +947,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,16 +1003,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -563,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G985"/>
+  <dimension ref="A1:G995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -592,253 +1261,233 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
+      <c r="C14" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -850,35 +1499,215 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1832,8 +2661,19 @@
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F806F2-BC4B-48B9-9B5A-CEFEFB4271DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE73240-A27F-4882-B9E1-E672786C2151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>Αύξων αριθμός άσκησης</t>
   </si>
@@ -479,9 +479,6 @@
     <t>Η.Υ σε ίδιο ή διαφορετικό δίκτυο</t>
   </si>
   <si>
-    <t xml:space="preserve">Εύρεση πληροφοριών δικτύου </t>
-  </si>
-  <si>
     <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.46.128/26 σε έναν Η/Υ (host); Αιτιολογήστε</t>
   </si>
   <si>
@@ -917,16 +914,80 @@
       <t>). Άρα πρόκειται για διεύθυνση που μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
     </r>
   </si>
+  <si>
+    <t>Εύρεση πληροφοριών δικτύου 2</t>
+  </si>
+  <si>
+    <t>Εύρεση πληροφοριών δικτύου 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Για τον υπολογιστή 192.168.5.200/27 να υπολογίσετε:
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
+Δ2. Τη διεύθυνση δικτύου (network address) 
+Δ3. Τη διεύθυνση εκπομπής (broadcast address)
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
+</t>
+  </si>
+  <si>
+    <t>Για τον υπολογιστή 192.168.5.200/27 να υπολογίσετε:
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
+255.255.255.224 ή 11111111.11111111.11111111.11100000
+Δ2. Τη διεύθυνση δικτύου (network address) 
+Διεύθυνση Δικτύου 
+192.168.5.200(11001000) AND 255.255.255.224(11100000)=192.168.5.192(110 00000)/27
+Δ3. Τη διεύθυνση εκπομπής (broadcast address)
+Διεύθυνση Εκπομπής -&gt;  192.168.5.223(110 11111)
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+2^5 -2 = 30
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
+Από 192.168.5.193 έως 192.168.5.222</t>
+  </si>
+  <si>
+    <t>Εύρεση πληροφοριών δικτύου 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
+Δ2. Τη διεύθυνση δικτύου (network address) 
+Δ3. Τη διεύθυνση εκπομπής (broadcast address)
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
+255.255.240.0 ή 11111111.11111111.11110000.00000000
+Δ2. Τη διεύθυνση δικτύου (network address) 
+Διεύθυνση Δικτύου 
+172.16.150.10(1010 0110.00001010) AND 255.255.240.0(1111 00000.00000000)=172.16.144.0(1001 0000.00000000)/20
+Δ3. Τη διεύθυνση εκπομπής (broadcast address)
+Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 1111.11111111)
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+2^12 -2 = 4094
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
+Από 172.16.144.1 έως 172.16.159.254
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,20 +1064,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1232,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G995"/>
+  <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1374,8 +1439,8 @@
       <c r="B8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
+      <c r="C8" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>67</v>
@@ -1391,14 +1456,14 @@
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>72</v>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1408,301 +1473,333 @@
       <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>76</v>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2671,8 +2768,10 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE73240-A27F-4882-B9E1-E672786C2151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F805D1-6E2C-474B-83B6-3C680FFCB37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,28 +947,26 @@
     <t>Εύρεση πληροφοριών δικτύου 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:
-Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
-Δ2. Τη διεύθυνση δικτύου (network address) 
-Δ3. Τη διεύθυνση εκπομπής (broadcast address)
-Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
-Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:
-Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
-255.255.240.0 ή 11111111.11111111.11110000.00000000
-Δ2. Τη διεύθυνση δικτύου (network address) 
-Διεύθυνση Δικτύου 
-172.16.150.10(1010 0110.00001010) AND 255.255.240.0(1111 00000.00000000)=172.16.144.0(1001 0000.00000000)/20
-Δ3. Τη διεύθυνση εκπομπής (broadcast address)
-Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 1111.11111111)
-Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
-2^12 -2 = 4094
-Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
-Από 172.16.144.1 έως 172.16.159.254
-</t>
+    <t xml:space="preserve">Για τον υπολογιστή **172.16.150.10/20** να υπολογίσετε:  
+**Δ1.** Την μάσκα δικτύου(δυαδική-δεκαδική)  
+**Δ2.** Τη διεύθυνση δικτύου (network address)   
+**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  
+**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου   
+**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Για τον υπολογιστή **172.16.150.10/20** να υπολογίσετε:  
+**Δ1**. Την μάσκα δικτύου(δυαδική-δεκαδική)  
+255.255.240.0 ή 11111111.11111111.1111 **0000.00000000**  
+**Δ2.** Τη διεύθυνση δικτύου (network address)  
+Διεύθυνση Δικτύου   
+172.16.150.10(1010 **0110.00001010**) AND 255.255.240.0(1111 **00000.00000000**)=172.16.144.0(1001 **0000.00000000**)/20  
+**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  
+Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 **1111.11111111**)  
+**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  
+2^12 -2 = 4094  
+**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  
+Από 172.16.144.1 έως 172.16.159.254  </t>
   </si>
 </sst>
 </file>

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F805D1-6E2C-474B-83B6-3C680FFCB37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF8C8C-DA7A-4353-9679-D3D5ECDF90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,26 +947,26 @@
     <t>Εύρεση πληροφοριών δικτύου 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Για τον υπολογιστή **172.16.150.10/20** να υπολογίσετε:  
-**Δ1.** Την μάσκα δικτύου(δυαδική-δεκαδική)  
-**Δ2.** Τη διεύθυνση δικτύου (network address)   
-**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  
-**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου   
-**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Για τον υπολογιστή **172.16.150.10/20** να υπολογίσετε:  
-**Δ1**. Την μάσκα δικτύου(δυαδική-δεκαδική)  
-255.255.240.0 ή 11111111.11111111.1111 **0000.00000000**  
-**Δ2.** Τη διεύθυνση δικτύου (network address)  
-Διεύθυνση Δικτύου   
-172.16.150.10(1010 **0110.00001010**) AND 255.255.240.0(1111 **00000.00000000**)=172.16.144.0(1001 **0000.00000000**)/20  
-**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  
-Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 **1111.11111111**)  
-**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  
-2^12 -2 = 4094  
-**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  
-Από 172.16.144.1 έως 172.16.159.254  </t>
+    <t>Για τον υπολογιστή **172.16.150.10/20** να υπολογίσετε:  &lt;br&gt;
+**Δ1**. Την μάσκα δικτύου(δυαδική-δεκαδική)&lt;br&gt;
+255.255.240.0 ή 11111111.11111111.1111 **0000.00000000**&lt;br&gt;
+**Δ2.** Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
+Διεύθυνση Δικτύου   &lt;br&gt;
+172.16.150.10(1010 **0110.00001010**) AND 255.255.240.0(1111 **00000.00000000**)=172.16.144.0(1001 **0000.00000000**)/20 &lt;br&gt;
+**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
+Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 **1111.11111111**)  &lt;br&gt;
+**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
+2^12 -2 = 4094 
+**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  \
+Από 172.16.144.1 έως 172.16.159.254  \</t>
+  </si>
+  <si>
+    <t>Για τον υπολογιστή &lt;strong&gt;172.16.150.10/20&lt;/strong&gt; να υπολογίσετε:  &lt;br&gt;
+**Δ1.** Την μάσκα δικτύου(δυαδική-δεκαδική)  &lt;br&gt;
+**Δ2.** Τη διεύθυνση δικτύου (network address)  &lt;br&gt; 
+**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
+**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
+**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  &lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1475,10 +1475,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF8C8C-DA7A-4353-9679-D3D5ECDF90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A09D83-3EE9-44B3-8C62-8164FFE9365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,26 +947,26 @@
     <t>Εύρεση πληροφοριών δικτύου 3</t>
   </si>
   <si>
-    <t>Για τον υπολογιστή **172.16.150.10/20** να υπολογίσετε:  &lt;br&gt;
-**Δ1**. Την μάσκα δικτύου(δυαδική-δεκαδική)&lt;br&gt;
-255.255.240.0 ή 11111111.11111111.1111 **0000.00000000**&lt;br&gt;
-**Δ2.** Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
+    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)  &lt;br&gt;
+Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt; 
+Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή </t>
+  </si>
+  <si>
+    <t>Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)&lt;br&gt;
+255.255.240.0 ή 11111111.11111111.1111 **0000.00000000** &lt;br&gt;
+Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
 Διεύθυνση Δικτύου   &lt;br&gt;
 172.16.150.10(1010 **0110.00001010**) AND 255.255.240.0(1111 **00000.00000000**)=172.16.144.0(1001 **0000.00000000**)/20 &lt;br&gt;
-**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
+Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
 Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 **1111.11111111**)  &lt;br&gt;
-**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
 2^12 -2 = 4094 
-**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  \
-Από 172.16.144.1 έως 172.16.159.254  \</t>
-  </si>
-  <si>
-    <t>Για τον υπολογιστή &lt;strong&gt;172.16.150.10/20&lt;/strong&gt; να υπολογίσετε:  &lt;br&gt;
-**Δ1.** Την μάσκα δικτύου(δυαδική-δεκαδική)  &lt;br&gt;
-**Δ2.** Τη διεύθυνση δικτύου (network address)  &lt;br&gt; 
-**Δ3.** Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
-**Δ4.** Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
-**Δ5.** Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  &lt;br&gt;</t>
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  &lt;br&gt;
+Από 172.16.144.1 έως 172.16.159.254  &lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1475,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A09D83-3EE9-44B3-8C62-8164FFE9365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824744B-F7D4-4C6F-A877-A81925A39082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,14 +957,14 @@
   <si>
     <t>Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
 Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)&lt;br&gt;
-255.255.240.0 ή 11111111.11111111.1111 **0000.00000000** &lt;br&gt;
+255.255.240.0 ή 11111111.11111111.1111  **0000.00000000**   &lt;br&gt;
 Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
 Διεύθυνση Δικτύου   &lt;br&gt;
 172.16.150.10(1010 **0110.00001010**) AND 255.255.240.0(1111 **00000.00000000**)=172.16.144.0(1001 **0000.00000000**)/20 &lt;br&gt;
 Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
-Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001 **1111.11111111**)  &lt;br&gt;
+Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001  **1111.11111111**)   &lt;br&gt;
 Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
-2^12 -2 = 4094 
+2^12 -2 = 4094 &lt;br&gt; 
 Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  &lt;br&gt;
 Από 172.16.144.1 έως 172.16.159.254  &lt;br&gt;</t>
   </si>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824744B-F7D4-4C6F-A877-A81925A39082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014FB07-2B04-4DD7-A411-EFDD9636F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,9 +960,9 @@
 255.255.240.0 ή 11111111.11111111.1111  **0000.00000000**   &lt;br&gt;
 Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
 Διεύθυνση Δικτύου   &lt;br&gt;
-172.16.150.10(1010 **0110.00001010**) AND 255.255.240.0(1111 **00000.00000000**)=172.16.144.0(1001 **0000.00000000**)/20 &lt;br&gt;
+172.16.150.10(1010 :yellow[0110.00001010]) AND 255.255.240.0(1111 :yellow[00000.00000000])=172.16.144.0(1001 :yellow[0000.00000000])/20 &lt;br&gt;
 Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
-Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001  **1111.11111111**)   &lt;br&gt;
+Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001  :yellow[1111.11111111])   &lt;br&gt;
 Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
 2^12 -2 = 4094 &lt;br&gt; 
 Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  &lt;br&gt;

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014FB07-2B04-4DD7-A411-EFDD9636F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410F4BF-F72F-4FF8-8186-A42D85B26B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
 255.255.240.0 ή 11111111.11111111.1111  **0000.00000000**   &lt;br&gt;
 Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
 Διεύθυνση Δικτύου   &lt;br&gt;
-172.16.150.10(1010 :yellow[0110.00001010]) AND 255.255.240.0(1111 :yellow[00000.00000000])=172.16.144.0(1001 :yellow[0000.00000000])/20 &lt;br&gt;
+172.16.150.10(1010 :red[0110.00001010]) AND 255.255.240.0(1111 :yellow[00000.00000000])=172.16.144.0(1001 :yellow[0000.00000000])/20 &lt;br&gt;
 Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
 Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001  :yellow[1111.11111111])   &lt;br&gt;
 Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410F4BF-F72F-4FF8-8186-A42D85B26B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F80663-F86F-4DEB-BADE-100A20B63A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,7 @@
   <si>
     <t>Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
 Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)&lt;br&gt;
-255.255.240.0 ή 11111111.11111111.1111  **0000.00000000**   &lt;br&gt;
+255.255.240.0 ή 11111111.11111111.1111  :red[0000.00000000]   &lt;br&gt;
 Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
 Διεύθυνση Δικτύου   &lt;br&gt;
 172.16.150.10(1010 :red[0110.00001010]) AND 255.255.240.0(1111 :yellow[00000.00000000])=172.16.144.0(1001 :yellow[0000.00000000])/20 &lt;br&gt;
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F80663-F86F-4DEB-BADE-100A20B63A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482307D4-8364-4C92-ACA0-5ADD20A48123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,14 +301,6 @@
     <t>Μεταγράψτε τη διεύθυνση a1-d0-63-56-78-90 έτσι ώστε να είναι ενεργοποιημένο (1) το X-bit (U/L).</t>
   </si>
   <si>
-    <t>Διεύθυνση -&gt; a1-d0-63-56-78-90
-Το MSB είναι το a1 -&gt; άρα το 1010 0001 
-Αντιστρέφουμε το MSB  -&gt; 1000 0101 
-X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1100 0101
-Αντιστρέφουμε ξανά το MSB -&gt; 1010 0011
-Η νέα διεύθυνση είναι -&gt; a3-d0-63-56-78-90</t>
-  </si>
-  <si>
     <t>Μεταγραφή διεύθυνσης MAC 1</t>
   </si>
   <si>
@@ -316,23 +308,6 @@
   </si>
   <si>
     <t>Μεταγράψτε τη διεύθυνση a6-d0-63-56-78-90 έτσι ώστε η διεύθυνση να είναι πολυδιανομής.</t>
-  </si>
-  <si>
-    <t>Διεύθυνση -&gt; a6-d0-63-56-78-90
-Το MSB είναι το a6 -&gt; άρα το 1010 0110 
-Αντιστρέφουμε το MSB -&gt; 0110 0101 
-M-bit = 0  -&gt; μετατρέπουμε το M-bit σε 1 και έχουμε -&gt; 1110 0101
-Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111
-Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διεύθυνση -&gt; e5-d0-63-56-78-90
-Το MSB είναι το e5 -&gt; άρα το 1110 0101 
-Αντιστρέφουμε το MSB  -&gt; 1010 0111 
-X-bit = 0  -&gt; μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0111
-Αντιστρέφουμε ξανά το MSB -&gt; 11100111
-Η νέα διεύθυνση είναι -&gt; e7-d0-63-56-78-90
-</t>
   </si>
   <si>
     <t>Μεταγραφή διεύθυνσης MAC 3</t>
@@ -351,22 +326,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Διεύθυνση -&gt; a5-d0-63-56-78-90
-Το MSB είναι το a1 -&gt; άρα το 1010 0101 
-Αντιστρέφουμε το MSB  -&gt; 1010 0101 
-M-bit = 1 Άρα είναι διεύθυνση Πολυδιανομής
-X-bit = 0 Άρα είναι διεύθυνση Καθολικά Μοναδική
-X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0101
-Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111
-Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90
-</t>
-  </si>
-  <si>
     <t>Εύρεση Mbit, Xbit, OUI</t>
   </si>
   <si>
-    <r>
-      <t>Για τη διεύθυνση MAC e5-c8-d0-12-34-56 βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L) και το OUI.</t>
+    <t xml:space="preserve">Διευθυνσιοδότηση </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Οι υπολογιστές με διευθύνσεις IP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.31.12/22</t>
     </r>
     <r>
       <rPr>
@@ -379,20 +358,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Διεύθυνση -&gt;  e5-c8-d0-12-34-56
-Το MSB είναι το e5 -&gt; άρα το 1110 0101 -&gt; αντιστρέφουμε -&gt; 1010 0111 
-M-bit = 1  X-bit = 0 
-OUI -&gt; e5-c8-d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διευθυνσιοδότηση </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Οι υπολογιστές με διευθύνσεις IP </t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -403,29 +368,6 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t>192.168.31.12/22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>και 192.168.47.13/22</t>
     </r>
     <r>
@@ -439,19 +381,6 @@
       </rPr>
       <t xml:space="preserve"> (η μάσκα δικτύου /22 είναι 255.255.252.0) ανήκουν στο ίδιο δίκτυο;</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Βρίσκουμε τις διευθύνσεις δικτύου των δύο υπολογιστών. Αν είναι ίδιες τότε οι υπολογιστές ανήκουν στο ίδιο δίκτυο. Αν δεν είναι ίδιες τότε οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα.
-1ος Η/Υ: 
-IP    192.168.31.12/22
-Μάσκα   255.255.252.0 
-Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.28.0/22  
-2ος Η/Υ: 
-IP  192.168.47.13/22
-Μάσκα   255.255.252.0
-Διεύθυνση Δικτύου IP AND Μάσκα =  192.168.44.0/22
-192.168.28.0 != 192.168.44.0 συνεπώς οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα
-</t>
   </si>
   <si>
     <t xml:space="preserve">Για τη διεύθυνση IP 192.168.1.135/26 να δώσετε: 
@@ -463,131 +392,12 @@
 </t>
   </si>
   <si>
-    <t>A. Την μάσκα δικτύου(δυαδική-δεκαδική)
-255.255.255.192 ή 11111111.11111111.11111111.11000000
-B. Τη διεύθυνση δικτύου (network address) 
-Διεύθυνση Δικτύου 
-192.168.1.135(10000111)AND255.255.255.192(11000000)=192.168.1.128(10000000)/26
-C. Τη διεύθυνση εκπομπής (broadcast address)
-Διεύθυνση Εκπομπής   192.168.1.191(10111111)
-D. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
-2^6 -2 = 62
-E. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
-Από 192.168.1.129 έως 192.168.1.190</t>
-  </si>
-  <si>
     <t>Η.Υ σε ίδιο ή διαφορετικό δίκτυο</t>
   </si>
   <si>
     <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.46.128/26 σε έναν Η/Υ (host); Αιτιολογήστε</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Βοήθεια:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
-Διεύθυνση IP   192.168.46.128
-Μάσκα   255.255.255.192
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.46.128
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Η διεύθυνση 192.168.46.128 αποτελεί και τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2ος τρόπος:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
-- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
-192.168.46.128 (10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">). Άρα πρόκειται για τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
-</t>
-    </r>
-  </si>
-  <si>
     <t>Είδος διεύθυνσης IP 2</t>
   </si>
   <si>
@@ -595,162 +405,6 @@
   </si>
   <si>
     <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.31.63/26 σε έναν Η/Υ (host); Αιτιολογήστε.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Βοήθεια:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
-Διεύθυνση IP   192.168.31.63/26
-Μάσκα   255.255.255.192
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.31.0 (00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-Διεύθυνση Εκπομπής = 192.168.31.63 (00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111111</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Η διεύθυνση 192.168.31.63 αποτελεί και τη διεύθυνση εκπομπής του δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2ος τρόπος:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
-- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
-192.168.31.63 (00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). Άρα πρόκειται για τη διεύθυνση εκπομπής, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
-    </r>
   </si>
   <si>
     <t>Είδος διεύθυνσης IP 3</t>
@@ -930,20 +584,6 @@
 </t>
   </si>
   <si>
-    <t>Για τον υπολογιστή 192.168.5.200/27 να υπολογίσετε:
-Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)
-255.255.255.224 ή 11111111.11111111.11111111.11100000
-Δ2. Τη διεύθυνση δικτύου (network address) 
-Διεύθυνση Δικτύου 
-192.168.5.200(11001000) AND 255.255.255.224(11100000)=192.168.5.192(110 00000)/27
-Δ3. Τη διεύθυνση εκπομπής (broadcast address)
-Διεύθυνση Εκπομπής -&gt;  192.168.5.223(110 11111)
-Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
-2^5 -2 = 30
-Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή 
-Από 192.168.5.193 έως 192.168.5.222</t>
-  </si>
-  <si>
     <t>Εύρεση πληροφοριών δικτύου 3</t>
   </si>
   <si>
@@ -957,16 +597,375 @@
   <si>
     <t>Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
 Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)&lt;br&gt;
-255.255.240.0 ή 11111111.11111111.1111  :red[0000.00000000]   &lt;br&gt;
+255.255.240.0 ή 11111111.11111111.1111  :blue[0000.00000000]   &lt;br&gt;
 Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt;
 Διεύθυνση Δικτύου   &lt;br&gt;
-172.16.150.10(1010 :red[0110.00001010]) AND 255.255.240.0(1111 :yellow[00000.00000000])=172.16.144.0(1001 :yellow[0000.00000000])/20 &lt;br&gt;
+172.16.150.10(1010 :blue[0110.00001010]) AND 255.255.240.0(1111 :blue[00000.00000000])=172.16.144.0(1001 :blue[0000.00000000])/20 &lt;br&gt;
 Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
-Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001  :yellow[1111.11111111])   &lt;br&gt;
+Διεύθυνση Εκπομπής -&gt;  172.16.159.255(1001  :blue[1111.11111111])   &lt;br&gt;
 Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
 2^12 -2 = 4094 &lt;br&gt; 
 Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή  &lt;br&gt;
 Από 172.16.144.1 έως 172.16.159.254  &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Για τον υπολογιστή 192.168.5.200/27 να υπολογίσετε: &lt;br&gt;
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική) &lt;br&gt;
+255.255.255.224 ή 11111111.11111111.11111111.111 :blue[00000] &lt;br&gt;
+Δ2. Τη διεύθυνση δικτύου (network address) &lt;br&gt; 
+Διεύθυνση Δικτύου &lt;br&gt;
+192.168.5.200(11001000) AND 255.255.255.224(11100000)=192.168.5.192(110 :blue[00000])/27 &lt;br&gt;
+Δ3. Τη διεύθυνση εκπομπής (broadcast address) &lt;br&gt;
+Διεύθυνση Εκπομπής -&gt;  192.168.5.223(110 :blue[11111]) &lt;br&gt;
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου &lt;br&gt;
+2^5 -2 = 30 &lt;br&gt;
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή &lt;br&gt;
+Από 192.168.5.193 έως 192.168.5.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt;  e5-c8-d0-12-34-56 &lt;br&gt;
+Το MSB είναι το e5 -&gt; άρα το 1110 0101 -&gt; αντιστρέφουμε -&gt; 1010 0111 &lt;br&gt;
+M-bit = 1  X-bit = 0 &lt;br&gt; 
+OUI -&gt; e5-c8-d0 </t>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt; a6-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το a6 -&gt; άρα το 1010 0110 &lt;br&gt; 
+Αντιστρέφουμε το MSB -&gt; 0110 0101 &lt;br&gt;
+M-bit = 0  -&gt; μετατρέπουμε το M-bit σε 1 και έχουμε -&gt; 1110 0101 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90 &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt; e5-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το e5 -&gt; άρα το 1110 0101 &lt;br&gt; 
+Αντιστρέφουμε το MSB  -&gt; 1010 0111  &lt;br&gt;
+X-bit = 0  -&gt; μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0111 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 11100111 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; e7-d0-63-56-78-90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt; a5-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το a1 -&gt; άρα το 1010 0101 &lt;br&gt; 
+Αντιστρέφουμε το MSB  -&gt; 1010 0101 &lt;br&gt;
+M-bit = 1 Άρα είναι διεύθυνση Πολυδιανομής &lt;br&gt;
+X-bit = 0 Άρα είναι διεύθυνση Καθολικά Μοναδική &lt;br&gt;
+X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0101 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90 &lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt; a1-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το a1 -&gt; άρα το 1010 0001 &lt;br&gt; 
+Αντιστρέφουμε το MSB  -&gt; 1000 0101  &lt;br&gt;
+X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1100 0101 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0011 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; a3-d0-63-56-78-90 &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Βρίσκουμε τις διευθύνσεις δικτύου των δύο υπολογιστών. Αν είναι ίδιες τότε οι υπολογιστές ανήκουν στο ίδιο δίκτυο. Αν δεν είναι ίδιες τότε οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα. &lt;br&gt;
+1ος Η/Υ: &lt;br&gt;
+IP    192.168.31.12/22 &lt;br&gt;
+Μάσκα   255.255.252.0  &lt;br&gt;
+Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.28.0/22 &lt;br&gt;  
+2ος Η/Υ:  &lt;br&gt;
+IP  192.168.47.13/22 &lt;br&gt;
+Μάσκα   255.255.252.0 &lt;br&gt;
+Διεύθυνση Δικτύου IP AND Μάσκα =  192.168.44.0/22 &lt;br&gt;
+192.168.28.0 != 192.168.44.0 συνεπώς οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα
+</t>
+  </si>
+  <si>
+    <t>A. Την μάσκα δικτύου(δυαδική-δεκαδική) &lt;br&gt;
+255.255.255.192 ή 11111111.11111111.11111111.11000000 &lt;br&gt;
+B. Τη διεύθυνση δικτύου (network address) &lt;br&gt; 
+Διεύθυνση Δικτύου &lt;br&gt;
+192.168.1.135(10000111)AND255.255.255.192(11000000)=192.168.1.128(10000000)/26 &lt;br&gt;
+C. Τη διεύθυνση εκπομπής (broadcast address) &lt;br&gt;
+Διεύθυνση Εκπομπής   192.168.1.191(10111111) &lt;br&gt;
+D. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
+2^6 -2 = 62 &lt;br&gt;
+E. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή &lt;br&gt;
+Από 192.168.1.129 έως 192.168.1.190 &lt;br&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Βοήθεια:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
+Διεύθυνση IP   192.168.46.128 &lt;br&gt;
+Μάσκα   255.255.255.192 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.46.128 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Η διεύθυνση 192.168.46.128 αποτελεί και τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host) &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2ος τρόπος: &lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου. &lt;br&gt; 
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής. &lt;br&gt;
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ. &lt;br&gt;
+192.168.46.128 (10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Άρα πρόκειται για τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Βοήθεια:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
+Διεύθυνση IP   192.168.31.63/26 &lt;br&gt;
+Μάσκα   255.255.255.192 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.31.0 (00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+Διεύθυνση Εκπομπής = 192.168.31.63 (00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Η διεύθυνση 192.168.31.63 αποτελεί και τη διεύθυνση εκπομπής του δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2ος τρόπος:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
+192.168.31.63 (00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Άρα πρόκειται για τη διεύθυνση εκπομπής, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Για τη διεύθυνση MAC e5-c8-d0-12-34-56 βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L) και το OUI.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1298,7 +1297,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1336,13 +1335,13 @@
         <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,13 +1352,13 @@
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
+      <c r="E3" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>54</v>
+      <c r="E4" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1387,13 +1386,13 @@
         <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,13 +1403,13 @@
         <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1418,16 +1417,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,16 +1434,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1452,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1469,16 +1468,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,16 +1485,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,16 +1502,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1520,16 +1519,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482307D4-8364-4C92-ACA0-5ADD20A48123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44553E-16C0-4C33-ABA8-BB6DD04B5953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,36 +54,6 @@
 </t>
   </si>
   <si>
-    <t>(CIDR) ∆ίνεται υπολογιστής με διεύθυνση IP 192.168.6.71/25.A) 
-Α) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή. 
-11111111.11111111.11111111.10000000
-Μάσκα σε δεκαδική μορφή: 255.255.255.128
-B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής.
-192.168.6.71 AND 255.255.255.128 = 192.168.6.0/25
-Γ) Ποιος είναι ο συνολικός αριθμός υπολογιστών του συγκεκριμένου δικτύου;
-7 bit στο τμήμα υπολογιστή. Άρα 2^7 - 2 = 126 υπολογιστές
-∆) Το δίκτυο χωρίζεται σε τέσσερα ίσα υποδίκτυα. Να υπολογίσετε:
-α) Τη μάσκα των υποδικτύων σε δεκαδική μορφή. 
-11111111.11111111.11111111.11100000
-Μάσκα σε δεκαδική μορφή: 255.255.255.224
-β) Τις διευθύνσεις κάθε υποδικτύου. 
-1ο υποδίκτυο (00)
-Διεύθυνση ΥΔικτύου 192.168.6.0
-2ο υποδίκτυο (01)
-Διεύθυνση ΥΔικτύου 192.168.6.32
-3ο υποδίκτυο (10)
-Διεύθυνση ΥΔικτύου 192.168.6.64
-4ο υποδίκτυο (11)
-Διεύθυνση ΥΔικτύου 192.168.6.96
-γ) Το πλήθος των υπολογιστών κάθε υποδικτύου. 
-5 bit στο τμήμα υπολογιστή. Άρα 2^5 -2 = 30 υπολογιστές
-Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή.
-1ο υποδίκτυο (00)
-Διεύθυνση Εκπομπής 192.168.6.31
-1ος Η/Υ   192.168.6.1
-Τελευταίος Η/Υ 192.168.6.30</t>
-  </si>
-  <si>
     <t>(CIDR) ∆ίνεται υπολογιστής με διεύθυνση IP 192.168.100.45/22.
 A) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή. 
 B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής.
@@ -95,36 +65,6 @@
 Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή.</t>
   </si>
   <si>
-    <t>(CIDR) ∆ίνεται υπολογιστής με διεύθυνση IP 192.168.100.45/22.
-A) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή. 
-11111111.11111111.11111100.00000000
-Μάσκα σε δεκαδική μορφή: 255.255.252.0
-B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής.
-192.168.100.45 AND 255.255.252.0 = 192.168.100.0/22
-Γ) Ποιος είναι ο συνολικός αριθμός υπολογιστών του συγκεκριμένου δικτύου;
-10 bit στο τμήμα υπολογιστή. Άρα 2^10 - 2 = 1022 υπολογιστές
-∆) Το δίκτυο χωρίζεται σε τέσσερα ίσα υποδίκτυα. Να υπολογίσετε:
-α) Τη μάσκα των υποδικτύων σε δεκαδική μορφή. 
-11111111.11111111.11111111.00000000
-Μάσκα σε δεκαδική μορφή: 255.255.255.0
- β) Τις διευθύνσεις κάθε υποδικτύου. 
-1ο υποδίκτυο (00)
-Διεύθυνση ΥΔικτύου 192.168.100.0
-2ο υποδίκτυο (01)
-Διεύθυνση ΥΔικτύου 192.168.101.0
-3ο υποδίκτυο (10)
-Διεύθυνση ΥΔικτύου 192.168.102.0
-4ο υποδίκτυο (11)
-Διεύθυνση ΥΔικτύου 192.168.103.0
-γ) Το πλήθος των υπολογιστών κάθε υποδικτύου. 
-8 bit στο τμήμα υπολογιστή. Άρα 2^8 -2 = 254 υπολογιστές
-Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή.
-1ο υποδίκτυο (00)
-Διεύθυνση Εκπομπής 192.168.100.255
-1ος Η/Υ   192.168.100.1
-Τελευταίος Η/Υ 192.168.100.254</t>
-  </si>
-  <si>
     <t>(CIDR) ∆ίνεται υπολογιστής με διεύθυνση IP 192.168.6.71/26.
 A) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή.        
 B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής.
@@ -136,70 +76,13 @@
 Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή.</t>
   </si>
   <si>
-    <t>(CIDR) ∆ίνεται υπολογιστής με διεύθυνση IP 192.168.6.71/26.
-A) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή.        
-11111111.11111111.11111111.11000000
-Μάσκα σε δεκαδική μορφή: 255.255.255.192
-B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής.
-192.168.6.71 AND 255.255.255.192 = 192.168.6.64/26
-Γ) Ποιος είναι ο συνολικός αριθμός υπολογιστών του συγκεκριμένου δικτύου;
-6 bit στο τμήμα υπολογιστή. Άρα 2^6 - 2 = 62 υπολογιστές
-∆) Το δίκτυο χωρίζεται σε τέσσερα ίσα υποδίκτυα. Να υπολογίσετε:
-α) Τη μάσκα των υποδικτύων σε δεκαδική μορφή. 
-11111111.11111111.11111111.11110000
-Μάσκα σε δεκαδική μορφή: 255.255.255.240
-β) Τις διευθύνσεις κάθε υποδικτύου. 
-1ο υποδίκτυο (00)
-Διεύθυνση ΥΔικτύου        192.168.6.64
-2ο υποδίκτυο (01)
-Διεύθυνση ΥΔικτύου        192.168.6.80
-3ο υποδίκτυο (10)
-Διεύθυνση ΥΔικτύου        192.168.6.96
-4ο υποδίκτυο (11)
-Διεύθυνση ΥΔικτύου        192.168.6.112
-γ) Το πλήθος των υπολογιστών κάθε υποδικτύου. 
-5 bit στο τμήμα υπολογιστή. Άρα 2^4 -2 = 14 υπολογιστές
-Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή.
-1ο υποδίκτυο (00)
-Διεύθυνση Εκπομπής        192.168.6.79
-1ος Η/Υ                        192.168.6.65
-Τελευταίος Η/Υ        192.168.6.78</t>
-  </si>
-  <si>
-    <t>(Πληροφορίες ενός υπάρχοντος υποδικτύου)Δίνεται δίκτυο με διεύθυνση IP 192.168.4.0 και μάσκα υποδικτύου255.255.255.192.
-Α) Σε πόσα υποδίκτυα διαιρείται το δίκτυο;
-Η διεύθυνση είναι κλάσης C. Άρα αρχική μάσκα δικτύου:
-255.255.255.0 ή 11111111.11111111.11111111.00000000
-Μάσκα υποδικτύωσης:
-255.255.255.192 ή 11111111.11111111.11111111.110000000
-Τα επιπλέον bitπου δόθηκαν στην μάσκα είναι 2. Άρα:
-2^2 = 4 υποδίκτυα
-Β) Ο υπολογιστής Α με διεύθυνση IP 192.168.4.20 θέλει να επικοινωνήσει με τον υπολογιστή Β με διεύθυνση IP 192.168.4.130. Να εξετάσετε αν οι υπολογιστές ανήκουν στο ίδιο υποδίκτυο, (δηλαδή, αν έχουν την ίδια διεύθυνση υποδικτύου) αιτιολογώντας την απάντησή σας.
-192.168.4.20 AND 255.255.255.192 = 192.168.4.0/26
-192.168.4.130AND 255.255.255.192 = 192.168.4.128/26
-Ανήκουν σε διαφορετικό υποδίκτυο
-Γ) Εάν ο υπολογιστής Α θέλει να στείλει ένα μήνυμα σε όλους τους υπολογιστές του υποδικτύου στο οποίο ανήκει και ο ίδιος, ποια θα είναι η διεύθυνση προορισμού (σε δεκαδική μορφή) των πακέτων του μηνύματος;
-Θα είναι η διεύθυνση εκπομπής του υποδικτύου
-Διεύθυνση υποδικτύου: 192.168.4.0 (00  000000)
-Διεύθυνση εκπομπής: 192.168.4.63 (00  111111)</t>
-  </si>
-  <si>
     <t>Το δίκτυο 192.168.3.0/24 χωρίζεται σε υποδίκτυα των 20 υπολογιστών. Ποια είναι η διεύθυνση δικτύου του 3ου υποδικτύου;</t>
   </si>
   <si>
-    <t>3ο υποδίκτυο: 192.168.3.64/27 (01000000)</t>
-  </si>
-  <si>
     <t>Το δίκτυο 192.168.3.0/25 χωρίζεται σε 3 υποδίκτυα. Ποια είναι η διεύθυνση δικτύου του 2ου υποδικτύου;</t>
   </si>
   <si>
-    <t>2ο υποδίκτυο: 192.168.3.32/27    (00100000)</t>
-  </si>
-  <si>
     <t>Το δίκτυο 192.168.3.0/24 χωρίζεται σε 3 υποδίκτυα. Ποια είναι η διεύθυνση δικτύου του 2ου υποδικτύου;</t>
-  </si>
-  <si>
-    <t>2ο υποδίκτυο: 192.168.3.64/26 (01000000)</t>
   </si>
   <si>
     <t>Ένας υπολογιστής συνδέεται στο υποδίκτυο 192.168.3.0 το οποίο παρέχει συνολικά 32 διευθύνσεις. Ποια είναι η διεύθυνση εκπομπής του υποδικτύου;</t>
@@ -413,162 +296,6 @@
     <t>Μπορούμε να δώσουμε την διεύθυνση 192.168.31.68/26 σε έναν Η/Υ (host); Αιτιολογήστε.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Βοήθεια:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
-Διεύθυνση IP   192.168.31.68/26
-Μάσκα   255.255.255.192
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.31.64 (01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-Διεύθυνση Εκπομπής = 192.168.31.127 (01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111111</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Η διεύθυνση 192.168.31.68 δεν είναι ούτε διεύθυνση δικτύου ούτε  διεύθυνση εκπομπής του δικτύου, άρα μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2ος τρόπος:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
-- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
-192.168.31.68 (01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). Άρα πρόκειται για διεύθυνση που μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
-    </r>
-  </si>
-  <si>
     <t>Εύρεση πληροφοριών δικτύου 2</t>
   </si>
   <si>
@@ -585,14 +312,6 @@
   </si>
   <si>
     <t>Εύρεση πληροφοριών δικτύου 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
-Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική)  &lt;br&gt;
-Δ2. Τη διεύθυνση δικτύου (network address)  &lt;br&gt; 
-Δ3. Τη διεύθυνση εκπομπής (broadcast address)  &lt;br&gt;
-Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
-Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή </t>
   </si>
   <si>
     <t>Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  &lt;br&gt;
@@ -629,41 +348,6 @@
 OUI -&gt; e5-c8-d0 </t>
   </si>
   <si>
-    <t>Διεύθυνση -&gt; a6-d0-63-56-78-90 &lt;br&gt;
-Το MSB είναι το a6 -&gt; άρα το 1010 0110 &lt;br&gt; 
-Αντιστρέφουμε το MSB -&gt; 0110 0101 &lt;br&gt;
-M-bit = 0  -&gt; μετατρέπουμε το M-bit σε 1 και έχουμε -&gt; 1110 0101 &lt;br&gt;
-Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111 &lt;br&gt;
-Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90 &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διεύθυνση -&gt; e5-d0-63-56-78-90 &lt;br&gt;
-Το MSB είναι το e5 -&gt; άρα το 1110 0101 &lt;br&gt; 
-Αντιστρέφουμε το MSB  -&gt; 1010 0111  &lt;br&gt;
-X-bit = 0  -&gt; μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0111 &lt;br&gt;
-Αντιστρέφουμε ξανά το MSB -&gt; 11100111 &lt;br&gt;
-Η νέα διεύθυνση είναι -&gt; e7-d0-63-56-78-90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διεύθυνση -&gt; a5-d0-63-56-78-90 &lt;br&gt;
-Το MSB είναι το a1 -&gt; άρα το 1010 0101 &lt;br&gt; 
-Αντιστρέφουμε το MSB  -&gt; 1010 0101 &lt;br&gt;
-M-bit = 1 Άρα είναι διεύθυνση Πολυδιανομής &lt;br&gt;
-X-bit = 0 Άρα είναι διεύθυνση Καθολικά Μοναδική &lt;br&gt;
-X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1110 0101 &lt;br&gt;
-Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111 &lt;br&gt;
-Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90 &lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t>Διεύθυνση -&gt; a1-d0-63-56-78-90 &lt;br&gt;
-Το MSB είναι το a1 -&gt; άρα το 1010 0001 &lt;br&gt; 
-Αντιστρέφουμε το MSB  -&gt; 1000 0101  &lt;br&gt;
-X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1100 0101 &lt;br&gt;
-Αντιστρέφουμε ξανά το MSB -&gt; 1010 0011 &lt;br&gt;
-Η νέα διεύθυνση είναι -&gt; a3-d0-63-56-78-90 &lt;br&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Βρίσκουμε τις διευθύνσεις δικτύου των δύο υπολογιστών. Αν είναι ίδιες τότε οι υπολογιστές ανήκουν στο ίδιο δίκτυο. Αν δεν είναι ίδιες τότε οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα. &lt;br&gt;
 1ος Η/Υ: &lt;br&gt;
 IP    192.168.31.12/22 &lt;br&gt;
@@ -690,9 +374,71 @@
 Από 192.168.1.129 έως 192.168.1.190 &lt;br&gt;</t>
   </si>
   <si>
+    <t>Για τη διεύθυνση MAC e5-c8-d0-12-34-56 βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L) και το OUI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Για τον υπολογιστή 172.16.150.10/20 να υπολογίσετε:  
+Δ1. Την μάσκα δικτύου(δυαδική-δεκαδική) 
+Δ2. Τη διεύθυνση δικτύου (network address)  
+Δ3. Τη διεύθυνση εκπομπής (broadcast address) 
+Δ4. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου 
+Δ5. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή </t>
+  </si>
+  <si>
+    <t>2ο υποδίκτυο: 192.168.3.32/27    (001 :blue[00000])</t>
+  </si>
+  <si>
+    <t>3ο υποδίκτυο: 192.168.3.64/27 (010 :blue[00000])</t>
+  </si>
+  <si>
+    <t>2ο υποδίκτυο: 192.168.3.64/26 (01 :blue[000000])</t>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt; a6-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το a6 -&gt; άρα το 1010 0110 &lt;br&gt; 
+Αντιστρέφουμε το MSB -&gt; 0110 0101 &lt;br&gt;
+M-bit = 0  -&gt; μετατρέπουμε το M-bit σε 1 και έχουμε -&gt; :blue[1]110 0101 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90 &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt; e5-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το e5 -&gt; άρα το 1110 0101 &lt;br&gt; 
+Αντιστρέφουμε το MSB  -&gt; 1010 0111  &lt;br&gt;
+X-bit = 0  -&gt; μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1:blue[1]10 0111 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 11100111 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; e7-d0-63-56-78-90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση -&gt; a5-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το a1 -&gt; άρα το 1010 0101 &lt;br&gt; 
+Αντιστρέφουμε το MSB  -&gt; 1010 0101 &lt;br&gt;
+M-bit = 1 Άρα είναι διεύθυνση Πολυδιανομής &lt;br&gt;
+X-bit = 0 Άρα είναι διεύθυνση Καθολικά Μοναδική &lt;br&gt;
+X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1:blue[1]10 0101 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0111 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; a7-d0-63-56-78-90 &lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>Διεύθυνση -&gt; a1-d0-63-56-78-90 &lt;br&gt;
+Το MSB είναι το a1 -&gt; άρα το 1010 0001 &lt;br&gt; 
+Αντιστρέφουμε το MSB  -&gt; 1000 0101  &lt;br&gt;
+X-bit = 0  -&gt;  μετατρέπουμε το X-bit σε 1 και έχουμε -&gt; 1:blue[1]00 0101 &lt;br&gt;
+Αντιστρέφουμε ξανά το MSB -&gt; 1010 0011 &lt;br&gt;
+Η νέα διεύθυνση είναι -&gt; a3-d0-63-56-78-90 &lt;br&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Βοήθεια: &lt;br&gt;
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας: &lt;br&gt;
+Διεύθυνση IP   192.168.31.63/26 &lt;br&gt;
+Μάσκα   255.255.255.192 &lt;br&gt;
+Διεύθυνση Δικτύου -&gt; IP AND Μάσκα = 192.168.31.0 (00:blue[</t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -700,7 +446,7 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Βοήθεια:</t>
+      <t>000000]</t>
     </r>
     <r>
       <rPr>
@@ -711,11 +457,7 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
-Διεύθυνση IP   192.168.46.128 &lt;br&gt;
-Μάσκα   255.255.255.192 &lt;br&gt;
-</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -727,7 +469,7 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.46.128 &lt;br&gt;
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -739,7 +481,31 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Η διεύθυνση 192.168.46.128 αποτελεί και τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host) &lt;br&gt;
+      <t>Διεύθυνση Εκπομπής = 192.168.31.63 (00:blue[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) &lt;br&gt;
+Η διεύθυνση 192.168.31.63 αποτελεί και τη διεύθυνση εκπομπής του δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host) &lt;br&gt;
 </t>
     </r>
     <r>
@@ -764,14 +530,13 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου. &lt;br&gt; 
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου. &lt;br&gt;
 - Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής. &lt;br&gt;
 - Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ. &lt;br&gt;
-192.168.46.128 (10</t>
+192.168.31.63 (00:blue[</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -780,164 +545,7 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">). Άρα πρόκειται για τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Βοήθεια:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας:
-Διεύθυνση IP   192.168.31.63/26 &lt;br&gt;
-Μάσκα   255.255.255.192 &lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Διεύθυνση Δικτύου IP AND Μάσκα = 192.168.31.0 (00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-Διεύθυνση Εκπομπής = 192.168.31.63 (00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111111</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Η διεύθυνση 192.168.31.63 αποτελεί και τη διεύθυνση εκπομπής του δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2ος τρόπος:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου.
-- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής.
-- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ.
-192.168.31.63 (00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111111</t>
+      <t>111111]</t>
     </r>
     <r>
       <rPr>
@@ -952,8 +560,38 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Βοήθεια: &lt;br&gt;
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας: &lt;br&gt;
+Διεύθυνση IP   192.168.46.128 &lt;br&gt;
+Μάσκα   255.255.255.192 &lt;br&gt; 
+Διεύθυνση Δικτύου -&gt; IP AND Μάσκα = 192.168.46.128 &lt;br&gt;
+Η διεύθυνση 192.168.46.128 αποτελεί και τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host) &lt;br&gt;
+2ος τρόπος: &lt;br&gt;
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου. &lt;br&gt; 
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής. &lt;br&gt;
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ. &lt;br&gt;
+192.168.46.128 (10 :blue[00000]). Άρα πρόκειται για τη διεύθυνση δικτύου, άρα δεν μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)
+</t>
+  </si>
+  <si>
     <r>
-      <t>Για τη διεύθυνση MAC e5-c8-d0-12-34-56 βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L) και το OUI.</t>
+      <t>Βοήθεια: &lt;br&gt;
+Αν η διεύθυνση είναι είτε διεύθυνση δικτύου είτε διεύθυνση εκπομπής δεν μπορούμε να τη δώσουμε σε έναν κόμβο. Στο παράδειγμά μας: &lt;br&gt;
+Διεύθυνση IP   192.168.31.68/26 &lt;br&gt;
+Μάσκα   255.255.255.192 &lt;br&gt;
+Διεύθυνση Δικτύου -&gt; IP AND Μάσκα = 192.168.31.64 (01:blue[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000]</t>
     </r>
     <r>
       <rPr>
@@ -964,8 +602,169 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;br&gt;</t>
+      <t>) &lt;br&gt;
+Διεύθυνση Εκπομπής = 192.168.31.127 (01:blue[</t>
     </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &lt;br&gt;
+Η διεύθυνση 192.168.31.68 δεν είναι ούτε διεύθυνση δικτύου ούτε  διεύθυνση εκπομπής του δικτύου, άρα μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host) &lt;br&gt;
+2ος τρόπος: &lt;br&gt;
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 0 τότε είναι διεύθυνση δικτύου. &lt;br&gt;
+- Αν όλα τα bits του αναγνωριστικού υπολογιστή είναι 1 τότε είναι διεύθυνση εκπομπής. &lt;br&gt;
+- Σε οποιαδήποτε άλλη περίπτωση (ύπαρξη 0 και 1) είναι διεύθυνση Η/Υ. &lt;br&gt;
+192.168.31.68 (01:blue[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000100]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Άρα πρόκειται για διεύθυνση που μπορεί να χρησιμοποιηθεί σε έναν κόμβο (host)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ίνεται υπολογιστής με διεύθυνση IP 192.168.6.71/25. &lt;br&gt;
+Α) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή. &lt;br&gt;
+11111111.11111111.11111111.1 :blue[0000000] &lt;br&gt;
+Μάσκα σε δεκαδική μορφή: 255.255.255.128 &lt;br&gt;
+B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής. &lt;br&gt;
+192.168.6.71 AND 255.255.255.128 = 192.168.6.0/25 &lt;br&gt;
+Γ) Ποιος είναι ο συνολικός αριθμός υπολογιστών του συγκεκριμένου δικτύου; &lt;br&gt;
+7 bit στο τμήμα υπολογιστή. Άρα 2^7 - 2 = 126 υπολογιστές &lt;br&gt;
+∆) Το δίκτυο χωρίζεται σε τέσσερα ίσα υποδίκτυα. Να υπολογίσετε: &lt;br&gt;
+α) Τη μάσκα των υποδικτύων σε δεκαδική μορφή. &lt;br&gt; 
+11111111.11111111.11111111.111 :blue[00000] &lt;br&gt;
+Μάσκα σε δεκαδική μορφή: 255.255.255.224 &lt;br&gt;
+β) Τις διευθύνσεις κάθε υποδικτύου. &lt;br&gt;
+1ο υποδίκτυο (00) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.6.0 &lt;br&gt;
+2ο υποδίκτυο (01) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.6.32 &lt;br&gt;
+3ο υποδίκτυο (10) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.6.64 &lt;br&gt;
+4ο υποδίκτυο (11) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.6.96 &lt;br&gt;
+γ) Το πλήθος των υπολογιστών κάθε υποδικτύου. &lt;br&gt; 
+5 bit στο τμήμα υπολογιστή. Άρα 2^5 -2 = 30 υπολογιστές &lt;br&gt;
+Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή. &lt;br&gt;
+1ο υποδίκτυο (00) &lt;br&gt;
+Διεύθυνση Εκπομπής 192.168.6.31 &lt;br&gt;
+1ος Η/Υ   192.168.6.1 &lt;br&gt;
+Τελευταίος Η/Υ 192.168.6.30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ίνεται υπολογιστής με διεύθυνση IP 192.168.100.45/22. &lt;br&gt;
+A) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή. &lt;br&gt;
+11111111.11111111.111111 :blue[00.00000000] &lt;br&gt;
+Μάσκα σε δεκαδική μορφή: 255.255.252.0 &lt;br&gt;
+B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής. &lt;br&gt;
+192.168.100.45 AND 255.255.252.0 = 192.168.100.0/22 &lt;br&gt;
+Γ) Ποιος είναι ο συνολικός αριθμός υπολογιστών του συγκεκριμένου δικτύου; &lt;br&gt;
+10 bit στο τμήμα υπολογιστή. Άρα 2^10 - 2 = 1022 υπολογιστές &lt;br&gt;
+∆) Το δίκτυο χωρίζεται σε τέσσερα ίσα υποδίκτυα. Να υπολογίσετε: &lt;br&gt;
+α) Τη μάσκα των υποδικτύων σε δεκαδική μορφή.  &lt;br&gt;
+11111111.11111111.11111111.:blue[00000000] &lt;br&gt;
+Μάσκα σε δεκαδική μορφή: 255.255.255.0 &lt;br&gt;
+ β) Τις διευθύνσεις κάθε υποδικτύου. &lt;br&gt;
+1ο υποδίκτυο (00) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.100.0 &lt;br&gt;
+2ο υποδίκτυο (01) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.101.0 &lt;br&gt;
+3ο υποδίκτυο (10) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.102.0 &lt;br&gt;
+4ο υποδίκτυο (11) &lt;br&gt;
+Διεύθυνση ΥΔικτύου 192.168.103.0 &lt;br&gt;
+γ) Το πλήθος των υπολογιστών κάθε υποδικτύου. &lt;br&gt; 
+8 bit στο τμήμα υπολογιστή. Άρα 2^8 -2 = 254 υπολογιστές &lt;br&gt;
+Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή. &lt;br&gt;
+1ο υποδίκτυο (00) &lt;br&gt;
+Διεύθυνση Εκπομπής 192.168.100.255 &lt;br&gt;
+1ος Η/Υ   192.168.100.1 &lt;br&gt;
+Τελευταίος Η/Υ 192.168.100.254 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ίνεται υπολογιστής με διεύθυνση IP 192.168.6.71/26. &lt;br&gt;
+A) Να υπολογίσετε τη μάσκα του δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής σε δεκαδική μορφή.  &lt;br&gt;       
+11111111.11111111.11111111.11 :blue[000000] &lt;br&gt;
+Μάσκα σε δεκαδική μορφή: 255.255.255.192 &lt;br&gt;
+B) Να υπολογίσετε την IP δικτύου στο οποίο ανήκει ο παραπάνω υπολογιστής. &lt;br&gt;
+192.168.6.71 AND 255.255.255.192 = 192.168.6.64/26 &lt;br&gt;
+Γ) Ποιος είναι ο συνολικός αριθμός υπολογιστών του συγκεκριμένου δικτύου; &lt;br&gt;
+6 bit στο τμήμα υπολογιστή. Άρα 2^6 - 2 = 62 υπολογιστές &lt;br&gt;
+∆) Το δίκτυο χωρίζεται σε τέσσερα ίσα υποδίκτυα. Να υπολογίσετε: &lt;br&gt;
+α) Τη μάσκα των υποδικτύων σε δεκαδική μορφή.  &lt;br&gt;
+11111111.11111111.11111111.1111 :blue[0000] &lt;br&gt;
+Μάσκα σε δεκαδική μορφή: 255.255.255.240 &lt;br&gt;
+β) Τις διευθύνσεις κάθε υποδικτύου.  &lt;br&gt;
+1ο υποδίκτυο (00) &lt;br&gt;
+Διεύθυνση ΥΔικτύου        192.168.6.64 &lt;br&gt;
+2ο υποδίκτυο (01) &lt;br&gt;
+Διεύθυνση ΥΔικτύου        192.168.6.80 &lt;br&gt;
+3ο υποδίκτυο (10) &lt;br&gt;
+Διεύθυνση ΥΔικτύου        192.168.6.96 &lt;br&gt;
+4ο υποδίκτυο (11) &lt;br&gt;
+Διεύθυνση ΥΔικτύου        192.168.6.112 &lt;br&gt;
+γ) Το πλήθος των υπολογιστών κάθε υποδικτύου. &lt;br&gt; 
+5 bit στο τμήμα υπολογιστή. Άρα 2^4 -2 = 14 υπολογιστές &lt;br&gt;
+Ε) Για το πρώτο υποδίκτυο που θα δημιουργηθεί, να υπολογίσετε τη διεύθυνση εκπομπής, καθώς και τις διευθύνσεις του πρώτου και του τελευταίου υπολογιστή. &lt;br&gt;
+1ο υποδίκτυο (00) &lt;br&gt;
+Διεύθυνση Εκπομπής        192.168.6.79 &lt;br&gt;
+1ος Η/Υ                        192.168.6.65 &lt;br&gt;
+Τελευταίος Η/Υ        192.168.6.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δίνεται δίκτυο με διεύθυνση IP 192.168.4.0 και μάσκα υποδικτύου255.255.255.192. &lt;br&gt;
+Α) Σε πόσα υποδίκτυα διαιρείται το δίκτυο; &lt;br&gt;
+Η διεύθυνση είναι κλάσης C. Άρα αρχική μάσκα δικτύου: &lt;br&gt;
+255.255.255.0 ή 11111111.11111111.11111111.00000000 &lt;br&gt;
+Μάσκα υποδικτύωσης: &lt;br&gt;
+255.255.255.192 ή 11111111.11111111.11111111.110000000 &lt;br&gt;
+Τα επιπλέον bitπου δόθηκαν στην μάσκα είναι 2. Άρα: &lt;br&gt;
+2^2 = 4 υποδίκτυα &lt;br&gt;
+Β) Ο υπολογιστής Α με διεύθυνση IP 192.168.4.20 θέλει να επικοινωνήσει με τον υπολογιστή Β με διεύθυνση IP 192.168.4.130. Να εξετάσετε αν οι υπολογιστές ανήκουν στο ίδιο υποδίκτυο, (δηλαδή, αν έχουν την ίδια διεύθυνση υποδικτύου) αιτιολογώντας την απάντησή σας. &lt;br&gt;
+192.168.4.20 AND 255.255.255.192 = 192.168.4.0/26 &lt;br&gt;
+192.168.4.130AND 255.255.255.192 = 192.168.4.128/26 &lt;br&gt;
+Ανήκουν σε διαφορετικό υποδίκτυο &lt;br&gt;
+Γ) Εάν ο υπολογιστής Α θέλει να στείλει ένα μήνυμα σε όλους τους υπολογιστές του υποδικτύου στο οποίο ανήκει και ο ίδιος, ποια θα είναι η διεύθυνση προορισμού (σε δεκαδική μορφή) των πακέτων του μηνύματος; &lt;br&gt;
+Θα είναι η διεύθυνση εκπομπής του υποδικτύου &lt;br&gt;
+Διεύθυνση υποδικτύου: 192.168.4.0 (00  :blue[000000]) &lt;br&gt;
+Διεύθυνση εκπομπής: 192.168.4.63 (00  :blue[111111]) </t>
   </si>
 </sst>
 </file>
@@ -1031,7 +830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,7 +1095,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1318,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1332,16 +1130,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1366,16 +1164,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1383,16 +1181,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1400,16 +1198,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1417,16 +1215,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,16 +1232,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1451,16 +1249,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1468,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1485,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1502,16 +1300,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1539,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
+      <c r="E14" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1558,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1577,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1596,13 +1394,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1615,13 +1413,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1634,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1653,13 +1451,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1672,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1691,13 +1489,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1710,13 +1508,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1729,13 +1527,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1748,13 +1546,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1767,13 +1565,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1786,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>

--- a/askiseis.xlsx
+++ b/askiseis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agelos\Documents\Δράσεις\2024-25\Δίκτυα-Ασκήσεις\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44553E-16C0-4C33-ABA8-BB6DD04B5953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF8E76-F160-48BE-8F1D-106801782423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,12 +342,6 @@
 Από 192.168.5.193 έως 192.168.5.222</t>
   </si>
   <si>
-    <t xml:space="preserve">Διεύθυνση -&gt;  e5-c8-d0-12-34-56 &lt;br&gt;
-Το MSB είναι το e5 -&gt; άρα το 1110 0101 -&gt; αντιστρέφουμε -&gt; 1010 0111 &lt;br&gt;
-M-bit = 1  X-bit = 0 &lt;br&gt; 
-OUI -&gt; e5-c8-d0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Βρίσκουμε τις διευθύνσεις δικτύου των δύο υπολογιστών. Αν είναι ίδιες τότε οι υπολογιστές ανήκουν στο ίδιο δίκτυο. Αν δεν είναι ίδιες τότε οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα. &lt;br&gt;
 1ος Η/Υ: &lt;br&gt;
 IP    192.168.31.12/22 &lt;br&gt;
@@ -359,19 +353,6 @@
 Διεύθυνση Δικτύου IP AND Μάσκα =  192.168.44.0/22 &lt;br&gt;
 192.168.28.0 != 192.168.44.0 συνεπώς οι υπολογιστές ανήκουν σε διαφορετικά δίκτυα
 </t>
-  </si>
-  <si>
-    <t>A. Την μάσκα δικτύου(δυαδική-δεκαδική) &lt;br&gt;
-255.255.255.192 ή 11111111.11111111.11111111.11000000 &lt;br&gt;
-B. Τη διεύθυνση δικτύου (network address) &lt;br&gt; 
-Διεύθυνση Δικτύου &lt;br&gt;
-192.168.1.135(10000111)AND255.255.255.192(11000000)=192.168.1.128(10000000)/26 &lt;br&gt;
-C. Τη διεύθυνση εκπομπής (broadcast address) &lt;br&gt;
-Διεύθυνση Εκπομπής   192.168.1.191(10111111) &lt;br&gt;
-D. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
-2^6 -2 = 62 &lt;br&gt;
-E. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή &lt;br&gt;
-Από 192.168.1.129 έως 192.168.1.190 &lt;br&gt;</t>
   </si>
   <si>
     <t>Για τη διεύθυνση MAC e5-c8-d0-12-34-56 βρείτε τις τιμές των Μ-bit (I/G) και X-bit (U/L) και το OUI.</t>
@@ -766,16 +747,51 @@
 Διεύθυνση υποδικτύου: 192.168.4.0 (00  :blue[000000]) &lt;br&gt;
 Διεύθυνση εκπομπής: 192.168.4.63 (00  :blue[111111]) </t>
   </si>
+  <si>
+    <t>A. Την μάσκα δικτύου(δυαδική-δεκαδική) &lt;br&gt;
+255.255.255.192 ή 11111111.11111111.11111111.11 :blue[000000] &lt;br&gt;
+B. Τη διεύθυνση δικτύου (network address) &lt;br&gt; 
+Διεύθυνση Δικτύου &lt;br&gt;
+192.168.1.135(10000111) AND 255.255.255.192(11000000) = 192.168.1.128(10 :blue[000000])/26 &lt;br&gt;
+C. Τη διεύθυνση εκπομπής (broadcast address) &lt;br&gt;
+Διεύθυνση Εκπομπής -&gt; 192.168.1.191(10 :blue[111111]) &lt;br&gt;
+D. Τον συνολικό αριθμό υπολογιστών του συγκεκριμένου δικτύου  &lt;br&gt;
+2^6 -2 = 62 &lt;br&gt;
+E. Την περιοχή διευθύνσεων για υπολογιστές (από-έως) οι οποίες ανήκουν στο ίδιο δίκτυο με τον συγκεκριμένο υπολογιστή &lt;br&gt;
+Από 192.168.1.129 έως 192.168.1.190 &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διεύθυνση  MAC-&gt;  e5-c8-d0-12-34-56 &lt;br&gt;
+Το MSB είναι το e5 -&gt; άρα το 1110 0101 -&gt; αντιστρέφουμε -&gt; 1010 0111 &lt;br&gt;
+M-bit = 1  X-bit = 0 &lt;br&gt; 
+OUI -&gt; e5-c8-d0 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,21 +875,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1095,7 +1117,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1136,10 +1158,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1156,7 +1178,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1173,7 +1195,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1190,7 +1212,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1229,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,7 +1246,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,8 +1262,8 @@
       <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>69</v>
+      <c r="E8" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1257,7 +1279,7 @@
       <c r="D9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1272,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>65</v>
@@ -1292,7 +1314,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1309,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1362,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1381,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1400,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1419,7 +1441,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1438,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1457,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2566,7 +2588,7 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
